--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,23 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HANKYU OASIS (買物)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
